--- a/artfynd/A 70039-2021.xlsx
+++ b/artfynd/A 70039-2021.xlsx
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>602196.2126836443</v>
+        <v>602196</v>
       </c>
       <c r="R2" t="n">
-        <v>6555865.508774403</v>
+        <v>6555866</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -765,19 +765,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
